--- a/time_sheet/KidSports_CS297-TimeTracking.xlsx
+++ b/time_sheet/KidSports_CS297-TimeTracking.xlsx
@@ -20,24 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t xml:space="preserve">Team:</t>
   </si>
   <si>
+    <t xml:space="preserve">kidsports</t>
+  </si>
+  <si>
     <t xml:space="preserve">Members</t>
   </si>
   <si>
-    <t xml:space="preserve">Name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 4</t>
+    <t xml:space="preserve">Devin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tiya</t>
   </si>
   <si>
     <t xml:space="preserve">Hours</t>
@@ -173,8 +176,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -186,86 +189,107 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">F4</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">H4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5+C4</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">F5</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">H5</f>
@@ -274,15 +298,15 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6+C5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6</f>
@@ -295,15 +319,15 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -316,15 +340,15 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -337,15 +361,15 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -358,15 +382,15 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -379,15 +403,15 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -400,15 +424,15 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -421,15 +445,15 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/time_sheet/KidSports_CS297-TimeTracking.xlsx
+++ b/time_sheet/KidSports_CS297-TimeTracking.xlsx
@@ -182,7 +182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,11 +308,11 @@
         <v>45</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6+G5</f>
@@ -333,7 +333,7 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7+G6</f>
@@ -354,7 +354,7 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8+G7</f>
@@ -375,7 +375,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9+G8</f>
@@ -396,7 +396,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10+G9</f>
@@ -417,7 +417,7 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11+G10</f>
@@ -438,7 +438,7 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12+G11</f>
@@ -459,7 +459,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13+G12</f>

--- a/time_sheet/KidSports_CS297-TimeTracking.xlsx
+++ b/time_sheet/KidSports_CS297-TimeTracking.xlsx
@@ -176,14 +176,11 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -327,13 +324,19 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7+G6</f>
@@ -348,13 +351,19 @@
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8+G7</f>
@@ -369,13 +378,19 @@
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9+G8</f>
@@ -392,11 +407,11 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10+G9</f>
@@ -413,11 +428,11 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11+G10</f>
@@ -434,11 +449,11 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12+G11</f>
@@ -455,11 +470,11 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13+G12</f>
